--- a/6 семестр/ИАД/лабы/ЛР 4/data.xlsx
+++ b/6 семестр/ИАД/лабы/ЛР 4/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosta\Documents\Учёба\СДЕЛАНО\6 семестр\ИАД\лабы\ЛР 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95699DB7-F31E-4A75-9226-871F4088BD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D87C77-50C2-4483-B30E-96C183E1D360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Страна</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>Кластеры (m)</t>
+  </si>
+  <si>
+    <t>Dii - общая сумма квадратов расстояний внутри кластеров</t>
+  </si>
+  <si>
+    <t>Dij - сумма квадратов расстояний между кластерами</t>
   </si>
 </sst>
 </file>
@@ -382,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -398,6 +404,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3804,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D83C25-DBE7-4992-A8E9-954DB31E9664}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4045,7 +4054,29 @@
         <v>3.8913118847260786E-2</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/6 семестр/ИАД/лабы/ЛР 4/data.xlsx
+++ b/6 семестр/ИАД/лабы/ЛР 4/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosta\Documents\Учёба\СДЕЛАНО\6 семестр\ИАД\лабы\ЛР 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D87C77-50C2-4483-B30E-96C183E1D360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86C002F-8471-48D9-A743-3BDF74767CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="10" windowWidth="19120" windowHeight="10190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
@@ -1468,15 +1468,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3816,7 +3816,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
